--- a/biology/Zoologie/Aromobates_zippeli/Aromobates_zippeli.xlsx
+++ b/biology/Zoologie/Aromobates_zippeli/Aromobates_zippeli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aromobates zippeli est une espèce d'amphibiens de la famille des Aromobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aromobates zippeli est une espèce d'amphibiens de la famille des Aromobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Mérida au Venezuela[1]. Elle se rencontre à Mucuchíes vers 2 970 m d'altitude dans la cordillère de Mérida.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Mérida au Venezuela. Elle se rencontre à Mucuchíes vers 2 970 m d'altitude dans la cordillère de Mérida.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Kevin C. Zippel.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barrio-Amorós, &amp; Santos, 2012 : A phylogeny for Aromobates (Anura: Dendrobatidae) with description of three new species from the Andes of Venezuela, taxonomic comments on Aromobates saltuensis, A. inflexus, and notes on the conservation status of the genus. Zootaxa, no 3422, p. 1-31.</t>
         </is>
